--- a/dataxl/New Microsoft Excel Worksheet.xlsx
+++ b/dataxl/New Microsoft Excel Worksheet.xlsx
@@ -4,35 +4,71 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Test case</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>Mahale</t>
+  </si>
+  <si>
+    <t>4565665455</t>
+  </si>
+  <si>
+    <t>vijaymahale@gmail.com</t>
+  </si>
+  <si>
+    <t>At jaulke(vani)</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>422254</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>vijaymahale</t>
+  </si>
+  <si>
+    <t>vijay@143</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,13 +91,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -364,30 +404,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>